--- a/DS4A/Content.xlsx
+++ b/DS4A/Content.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pedro\Repos\AI\DS4A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02DF31DF-315D-461B-9222-69DE503AC5D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBEE968-228E-435D-90BB-7EC9C9E6C37A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{81ED3B3A-7501-4C8F-8ADF-C201FB328CAA}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{81ED3B3A-7501-4C8F-8ADF-C201FB328CAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
   <si>
     <t>Week</t>
   </si>
@@ -212,9 +212,6 @@
 Hyp testing in numerical vars</t>
   </si>
   <si>
-    <t>t-test</t>
-  </si>
-  <si>
     <t>chi-squared</t>
   </si>
   <si>
@@ -294,6 +291,30 @@
   </si>
   <si>
     <t>Clustering models</t>
+  </si>
+  <si>
+    <t>t-test, Anova</t>
+  </si>
+  <si>
+    <t>Model comparisons</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>Complete process of Data science</t>
+  </si>
+  <si>
+    <t>Regularization</t>
+  </si>
+  <si>
+    <t>Elastic net regularization</t>
+  </si>
+  <si>
+    <t>Time series correlation</t>
   </si>
 </sst>
 </file>
@@ -325,7 +346,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -591,11 +612,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -607,19 +652,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -638,12 +671,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -654,15 +681,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,45 +688,81 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1024,10 +1078,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF86E27-0CC5-4D43-9A9B-02F8F05309AF}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,1028 +1094,1077 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="16">
         <v>20.100000000000001</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="16">
         <v>2</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="32">
         <v>1.2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="32">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="15" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="37">
         <v>2</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="24">
         <v>2.1</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="24">
         <v>2</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="9" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="32">
         <v>1.3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="32">
         <v>3</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="34" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="29">
         <v>3</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="16">
         <v>1.4</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="32">
         <v>3.2</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="32">
         <v>2</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="9" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="32">
         <v>4.3</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="32">
         <v>3</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="9" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="9" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="32">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="32">
         <v>2</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="15" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="37">
         <v>4</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="24">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="24">
         <v>4</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="9" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="9" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="9" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="9" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="32">
         <v>1.5</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="32">
         <v>3</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="9" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="32">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="32">
         <v>3</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="9" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="9" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="9" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="9" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3">
+      <c r="A29" s="30"/>
+      <c r="B29" s="32">
         <v>5.2</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="32">
         <v>2</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="34" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
+      <c r="A31" s="29">
         <v>5</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="40">
         <v>12.1</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="40">
         <v>2</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="9" t="s">
+      <c r="A32" s="30"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="9" t="s">
+      <c r="A33" s="30"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="3">
+      <c r="A34" s="30"/>
+      <c r="B34" s="32">
         <v>12.2</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="32">
         <v>2</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="9" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="9" t="s">
+      <c r="A36" s="30"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="3">
+      <c r="A37" s="30"/>
+      <c r="B37" s="32">
         <v>12.3</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="32">
         <v>3</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="9" t="s">
+      <c r="A38" s="30"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="3">
+      <c r="A39" s="30"/>
+      <c r="B39" s="32">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="32">
         <v>3</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="15" t="s">
+      <c r="A40" s="31"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+      <c r="A41" s="37">
         <v>6</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="24">
         <v>5.3</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="24">
         <v>3</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="9" t="s">
+      <c r="A42" s="30"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="9" t="s">
+      <c r="A43" s="30"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="3">
+      <c r="A44" s="30"/>
+      <c r="B44" s="32">
         <v>7.1</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="32">
         <v>4</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="9" t="s">
+      <c r="A45" s="30"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="9" t="s">
+      <c r="A46" s="30"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="30"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="30"/>
+      <c r="B48" s="32">
+        <v>7.2</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="32">
+        <v>4</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="30"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="30"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="9" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="30"/>
+      <c r="B51" s="32">
+        <v>7.3</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="32">
+        <v>3</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="30"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="30"/>
+      <c r="B53" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="30"/>
+      <c r="B54" s="32">
+        <v>7.5</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="32">
+        <v>3</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="3">
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="38"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="29">
+        <v>7</v>
+      </c>
+      <c r="B56" s="40">
+        <v>6.1</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="40">
         <v>4</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="E56" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="30"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="30"/>
+      <c r="B58" s="32">
+        <v>6.2</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="32">
+        <v>4</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="30"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="30"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="30"/>
+      <c r="B61" s="32">
+        <v>6.3</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="32">
         <v>3</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="4">
-        <v>7.4</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" s="4">
-        <v>2</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="3">
+      <c r="E61" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="30"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="30"/>
+      <c r="B63" s="32">
+        <v>6.4</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="32">
         <v>3</v>
       </c>
-      <c r="E54" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="31"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="24">
-        <v>7</v>
-      </c>
-      <c r="B56" s="36">
-        <v>6.1</v>
-      </c>
-      <c r="C56" s="37" t="s">
+      <c r="E63" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="31"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="36">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="29">
+        <v>8</v>
+      </c>
+      <c r="B65" s="16">
+        <v>9.1</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="16">
+        <v>3</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="30"/>
+      <c r="B66" s="22">
+        <v>11.1</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="22">
         <v>4</v>
       </c>
-      <c r="E56" s="27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="C58" s="7" t="s">
+      <c r="E66" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="30"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="30"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="3">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="30"/>
+      <c r="B69" s="32">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="32">
         <v>4</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" s="3">
+      <c r="E69" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="30"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="30"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="30"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="30"/>
+      <c r="B73" s="32">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="32">
         <v>3</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" s="3">
+      <c r="E73" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="31"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="21">
+        <v>9</v>
+      </c>
+      <c r="B75" s="28">
+        <v>10.1</v>
+      </c>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28">
         <v>3</v>
       </c>
-      <c r="E63" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="28"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="24">
-        <v>8</v>
-      </c>
-      <c r="B65" s="25">
-        <v>9.1</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D65" s="25">
-        <v>3</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="4">
-        <v>11.1</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D66" s="4">
-        <v>4</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D67" s="3">
-        <v>4</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D71" s="3">
-        <v>3</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="28"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="18"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="9"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="9"/>
+      <c r="E75" s="12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="9"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="9"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="9"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="9"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22">
+        <v>5</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="9"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="9"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="9"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="9"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="5"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="9"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="5"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="9"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="5"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="9"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="5"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="9"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="5"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="9"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="5"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="9"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="5"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="9"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="5"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="9"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="5"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="9"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="5"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="9"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="5"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="9"/>
-    </row>
-    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="12"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="15"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="5"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="7"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="5"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="7"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="5"/>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="8"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="92">
     <mergeCell ref="A56:A64"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A65:A72"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A65:A74"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="C61:C62"/>
     <mergeCell ref="B61:B62"/>
@@ -2069,7 +2173,6 @@
     <mergeCell ref="B63:B64"/>
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B56:B57"/>
     <mergeCell ref="D58:D60"/>
     <mergeCell ref="C58:C60"/>
     <mergeCell ref="B58:B60"/>
@@ -2079,12 +2182,11 @@
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="B54:B55"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="C44:C47"/>
     <mergeCell ref="B44:B47"/>
     <mergeCell ref="C48:C50"/>
     <mergeCell ref="D48:D50"/>
     <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B56:B57"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="B39:B40"/>
@@ -2099,6 +2201,8 @@
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="C44:C47"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="B29:B30"/>
@@ -2112,10 +2216,6 @@
     <mergeCell ref="D24:D28"/>
     <mergeCell ref="C24:C28"/>
     <mergeCell ref="B24:B28"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A9:A16"/>
     <mergeCell ref="D17:D21"/>
     <mergeCell ref="C17:C21"/>
     <mergeCell ref="B17:B21"/>
@@ -2123,11 +2223,15 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B75:B78"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -2136,6 +2240,15 @@
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="C75:C78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
